--- a/SchedulingData/dynamic12/pso/scheduling2_8.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,216 +462,216 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>221.08</v>
+        <v>224.46</v>
       </c>
       <c r="D2" t="n">
-        <v>268.96</v>
+        <v>268.92</v>
       </c>
       <c r="E2" t="n">
-        <v>14.264</v>
+        <v>13.788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>213.9</v>
+        <v>268.92</v>
       </c>
       <c r="D3" t="n">
-        <v>276.1</v>
+        <v>326.52</v>
       </c>
       <c r="E3" t="n">
-        <v>13.56</v>
+        <v>10.668</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>268.96</v>
+        <v>251.54</v>
       </c>
       <c r="D4" t="n">
-        <v>325.76</v>
+        <v>294.54</v>
       </c>
       <c r="E4" t="n">
-        <v>11.184</v>
+        <v>10.876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>250.38</v>
+        <v>267.42</v>
       </c>
       <c r="D5" t="n">
-        <v>291.92</v>
+        <v>311.84</v>
       </c>
       <c r="E5" t="n">
-        <v>14.468</v>
+        <v>12.116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>213.78</v>
+        <v>311.84</v>
       </c>
       <c r="D6" t="n">
-        <v>265.12</v>
+        <v>354.54</v>
       </c>
       <c r="E6" t="n">
-        <v>11.668</v>
+        <v>9.956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>201.02</v>
+        <v>221.42</v>
       </c>
       <c r="D7" t="n">
-        <v>251.22</v>
+        <v>257.02</v>
       </c>
       <c r="E7" t="n">
-        <v>13.568</v>
+        <v>12.488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>276.1</v>
+        <v>268.02</v>
       </c>
       <c r="D8" t="n">
-        <v>316.1</v>
+        <v>316.98</v>
       </c>
       <c r="E8" t="n">
-        <v>10.2</v>
+        <v>13.912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>220</v>
+        <v>264.88</v>
       </c>
       <c r="D9" t="n">
-        <v>296.12</v>
+        <v>320.48</v>
       </c>
       <c r="E9" t="n">
-        <v>11.088</v>
+        <v>7.752</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>251.22</v>
+        <v>320.48</v>
       </c>
       <c r="D10" t="n">
-        <v>296.8</v>
+        <v>372.04</v>
       </c>
       <c r="E10" t="n">
-        <v>10.64</v>
+        <v>4.216</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>265.12</v>
+        <v>294.54</v>
       </c>
       <c r="D11" t="n">
-        <v>305.52</v>
+        <v>336.64</v>
       </c>
       <c r="E11" t="n">
-        <v>9.247999999999999</v>
+        <v>7.796</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>296.12</v>
+        <v>326.52</v>
       </c>
       <c r="D12" t="n">
-        <v>333.02</v>
+        <v>380.06</v>
       </c>
       <c r="E12" t="n">
-        <v>8.528</v>
+        <v>7.444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -679,13 +679,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>325.76</v>
+        <v>316.98</v>
       </c>
       <c r="D13" t="n">
-        <v>392.86</v>
+        <v>394.18</v>
       </c>
       <c r="E13" t="n">
-        <v>8.064</v>
+        <v>10.792</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>392.86</v>
+        <v>257.02</v>
       </c>
       <c r="D14" t="n">
-        <v>450.26</v>
+        <v>308.84</v>
       </c>
       <c r="E14" t="n">
-        <v>5.904</v>
+        <v>9.936</v>
       </c>
     </row>
     <row r="15">
@@ -713,36 +713,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>291.92</v>
+        <v>380.06</v>
       </c>
       <c r="D15" t="n">
-        <v>336.66</v>
+        <v>432.66</v>
       </c>
       <c r="E15" t="n">
-        <v>11.124</v>
+        <v>5.284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>305.52</v>
+        <v>308.84</v>
       </c>
       <c r="D16" t="n">
-        <v>359.38</v>
+        <v>358.28</v>
       </c>
       <c r="E16" t="n">
-        <v>5.972</v>
+        <v>6.632</v>
       </c>
     </row>
     <row r="17">
@@ -751,93 +751,93 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>296.8</v>
+        <v>394.18</v>
       </c>
       <c r="D17" t="n">
-        <v>348.76</v>
+        <v>480.78</v>
       </c>
       <c r="E17" t="n">
-        <v>8.044</v>
+        <v>7.712</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>336.66</v>
+        <v>354.54</v>
       </c>
       <c r="D18" t="n">
-        <v>387.68</v>
+        <v>401.54</v>
       </c>
       <c r="E18" t="n">
-        <v>7.652</v>
+        <v>6.876</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>450.26</v>
+        <v>372.04</v>
       </c>
       <c r="D19" t="n">
-        <v>502.56</v>
+        <v>417.52</v>
       </c>
       <c r="E19" t="n">
-        <v>2.784</v>
+        <v>1.288</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>348.76</v>
+        <v>417.52</v>
       </c>
       <c r="D20" t="n">
-        <v>393.28</v>
+        <v>501.54</v>
       </c>
       <c r="E20" t="n">
-        <v>5.712</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>387.68</v>
+        <v>336.64</v>
       </c>
       <c r="D21" t="n">
-        <v>445.38</v>
+        <v>411.4</v>
       </c>
       <c r="E21" t="n">
-        <v>5.492</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="22">
@@ -846,36 +846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>316.1</v>
+        <v>411.4</v>
       </c>
       <c r="D22" t="n">
-        <v>391.5</v>
+        <v>442</v>
       </c>
       <c r="E22" t="n">
-        <v>7.28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>359.38</v>
+        <v>480.78</v>
       </c>
       <c r="D23" t="n">
-        <v>424</v>
+        <v>529.28</v>
       </c>
       <c r="E23" t="n">
-        <v>3.64</v>
+        <v>3.992</v>
       </c>
     </row>
     <row r="24">
@@ -884,93 +884,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>424</v>
+        <v>501.54</v>
       </c>
       <c r="D24" t="n">
-        <v>473.24</v>
+        <v>541.66</v>
       </c>
       <c r="E24" t="n">
-        <v>0.336</v>
+        <v>27.668</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>473.24</v>
+        <v>432.66</v>
       </c>
       <c r="D25" t="n">
-        <v>578.97</v>
+        <v>493.8</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>pond10</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>391.5</v>
-      </c>
-      <c r="D26" t="n">
-        <v>426.56</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4.904</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>pond55</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>333.02</v>
-      </c>
-      <c r="D27" t="n">
-        <v>375.82</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.888</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>pond7</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>445.38</v>
-      </c>
-      <c r="D28" t="n">
-        <v>541.98</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2.412</v>
+        <v>2.26</v>
       </c>
     </row>
   </sheetData>
